--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints0.200000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints0.200000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.101582997304716e-90</v>
+        <v>1.081769137325486e-90</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>1.083957204133188e-90</v>
+        <v>1.086120015134697e-90</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>1.074983822145505e-90</v>
+        <v>1.094158971350166e-90</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>1.073917662995677e-90</v>
+        <v>1.105566340864625e-90</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>1.080013538337674e-90</v>
+        <v>1.12002245857083e-90</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>1.092526259825481e-90</v>
+        <v>1.137207659361531e-90</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>1.110710639113114e-90</v>
+        <v>1.156802278129507e-90</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>1.133821487854511e-90</v>
+        <v>1.178486649767454e-90</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>1.161113617703678e-90</v>
+        <v>1.201941109168147e-90</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>1.191841840314645e-90</v>
+        <v>1.226845991224369e-90</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>1.225260967341316e-90</v>
+        <v>1.252881630828806e-90</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>1.260625810437718e-90</v>
+        <v>1.279728362874238e-90</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>1.297191181257885e-90</v>
+        <v>1.307066522253452e-90</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.334211891455707e-90</v>
+        <v>1.334576443859126e-90</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.370942752685218e-90</v>
+        <v>1.361938462584044e-90</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.406638576600406e-90</v>
+        <v>1.388832913320958e-90</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.4405541748553e-90</v>
+        <v>1.41494013096265e-90</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.471944359103797e-90</v>
+        <v>1.439940450401803e-90</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.500086886735451e-90</v>
+        <v>1.463521615960946e-90</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.52472094790078e-90</v>
+        <v>1.485520373663671e-90</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.546013077402033e-90</v>
+        <v>1.50591146381011e-90</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.564145925564998e-90</v>
+        <v>1.524674830579812e-90</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.579302142715428e-90</v>
+        <v>1.541790418152297e-90</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.591664379179093e-90</v>
+        <v>1.557238170707102e-90</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.601415285281713e-90</v>
+        <v>1.570998032423706e-90</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.60873751134906e-90</v>
+        <v>1.58304994748165e-90</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.613813707706893e-90</v>
+        <v>1.593373860060465e-90</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.616826524680952e-90</v>
+        <v>1.601949714339643e-90</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.617958612596999e-90</v>
+        <v>1.608757454498717e-90</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.617392621780788e-90</v>
+        <v>1.613777024717207e-90</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.615311202558069e-90</v>
+        <v>1.616988369174634e-90</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.611897005254601e-90</v>
+        <v>1.61837143205051e-90</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.607332680196135e-90</v>
+        <v>1.617906157524358e-90</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.601800877708418e-90</v>
+        <v>1.615572489775694e-90</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.595459513101451e-90</v>
+        <v>1.611356283360533e-90</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.588300956669703e-90</v>
+        <v>1.605282949444708e-90</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.580249635474523e-90</v>
+        <v>1.597394134077076e-90</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.571229769423008e-90</v>
+        <v>1.587731532805571e-90</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.561165578422226e-90</v>
+        <v>1.576336841178102e-90</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.549981282379254e-90</v>
+        <v>1.563251754742583e-90</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.53760110120115e-90</v>
+        <v>1.54851796904691e-90</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.523949254795026e-90</v>
+        <v>1.532177179639039e-90</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.508949963067941e-90</v>
+        <v>1.514271082066865e-90</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.492527445926952e-90</v>
+        <v>1.494841371878282e-90</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.474605923279178e-90</v>
+        <v>1.473929744621253e-90</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.455109615031674e-90</v>
+        <v>1.45157789584367e-90</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.433962741091519e-90</v>
+        <v>1.427827521093451e-90</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.411089521365757e-90</v>
+        <v>1.402720315918477e-90</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.386414175761526e-90</v>
+        <v>1.37629797586673e-90</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.359877205748449e-90</v>
+        <v>1.348610535465033e-90</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.331628428273865e-90</v>
+        <v>1.319815235004556e-90</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.301962871904137e-90</v>
+        <v>1.290143688266618e-90</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.271178486217875e-90</v>
+        <v>1.259829005096484e-90</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.239573220793681e-90</v>
+        <v>1.229104295339414e-90</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.207445025210285e-90</v>
+        <v>1.198202668840789e-90</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.175091849046294e-90</v>
+        <v>1.16735723544587e-90</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.142811641880351e-90</v>
+        <v>1.136801104999959e-90</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.110902353291063e-90</v>
+        <v>1.106767387348317e-90</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.079661932857159e-90</v>
+        <v>1.077489192336324e-90</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.049388330157242e-90</v>
+        <v>1.049199629809242e-90</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.020379494769922e-90</v>
+        <v>1.022131809612337e-90</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>9.929251767806734e-91</v>
+        <v>9.965118740374859e-91</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>9.671134718888382e-91</v>
+        <v>9.723946087230928e-91</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>9.428232837758588e-91</v>
+        <v>9.496570375201561e-91</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>9.199238084670673e-91</v>
+        <v>9.281679351585093e-91</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>8.982842419878839e-91</v>
+        <v>9.077960763680678e-91</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>8.777737803636386e-91</v>
+        <v>8.884102358786633e-91</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>8.58261619619667e-91</v>
+        <v>8.698791884201325e-91</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>8.396169557813809e-91</v>
+        <v>8.520717087223835e-91</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>8.21708984874115e-91</v>
+        <v>8.348565715152521e-91</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>8.044069029232075e-91</v>
+        <v>8.181025515285764e-91</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>7.875799059540646e-91</v>
+        <v>8.016784234922608e-91</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>7.710971899920238e-91</v>
+        <v>7.854529621361433e-91</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>7.548279510624457e-91</v>
+        <v>7.692949421900838e-91</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>7.386413851906698e-91</v>
+        <v>7.530731383839208e-91</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>7.224066884020995e-91</v>
+        <v>7.366563254475579e-91</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>7.059930567220738e-91</v>
+        <v>7.199132781108334e-91</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>6.89269686175932e-91</v>
+        <v>7.027127711035846e-91</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>6.721057727890778e-91</v>
+        <v>6.849235791557171e-91</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>6.543705125868504e-91</v>
+        <v>6.664144769970683e-91</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>6.359331015946107e-91</v>
+        <v>6.470542393574988e-91</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>6.166627358376937e-91</v>
+        <v>6.267116409668415e-91</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>5.9642861134151e-91</v>
+        <v>6.052554565550095e-91</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>5.750999241313962e-91</v>
+        <v>5.825544608518372e-91</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>5.525458702326823e-91</v>
+        <v>5.584774285871523e-91</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>5.286356456707882e-91</v>
+        <v>5.32893134490878e-91</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>5.032384464710456e-91</v>
+        <v>5.056703532928438e-91</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>4.763361331061456e-91</v>
+        <v>4.768065125609091e-91</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>4.484962119287205e-91</v>
+        <v>4.469677956799006e-91</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>4.204758855151638e-91</v>
+        <v>4.170370023508124e-91</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>3.930324537655447e-91</v>
+        <v>3.878970434096798e-91</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>3.669232165799352e-91</v>
+        <v>3.604308296925419e-91</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>3.429054738585099e-91</v>
+        <v>3.355212720355453e-91</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>3.217365255013386e-91</v>
+        <v>3.140512812747263e-91</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>3.041736714085061e-91</v>
+        <v>2.969037682461396e-91</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>2.909742114801648e-91</v>
+        <v>2.849616437859047e-91</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>2.82895445616394e-91</v>
+        <v>2.791078187300699e-91</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>2.806946737172989e-91</v>
+        <v>2.802252039147087e-91</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>2.851291956829954e-91</v>
+        <v>2.891967101759123e-91</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>2.969563114135777e-91</v>
+        <v>3.069052483497318e-91</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>8.030550504451781e-97</v>
+        <v>8.079226581231814e-97</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.002025001078815e-96</v>
+        <v>1.010189472357111e-96</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>9.297721758332702e-97</v>
+        <v>9.49556526400595e-97</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>1.161428387918684e-96</v>
+        <v>1.170318516809676e-96</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.383188935978262e-96</v>
+        <v>1.377757544827124e-96</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.3768936575895e-96</v>
+        <v>1.371280697594652e-96</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>2.091114178069022e-96</v>
+        <v>2.098490393555164e-96</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>5.253858025033683e-96</v>
+        <v>5.274039460957791e-96</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>1.030083938831316e-95</v>
+        <v>1.033028181561144e-95</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>1.208030060978881e-95</v>
+        <v>1.212430327179949e-95</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>1.199507178634997e-95</v>
+        <v>1.202066240318447e-95</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>1.147399956524376e-95</v>
+        <v>1.145478673473299e-95</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>1.056768418531184e-95</v>
+        <v>1.053972846071725e-95</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>9.515273775315045e-96</v>
+        <v>9.511981113703871e-96</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>8.658708464047791e-96</v>
+        <v>8.673544603846167e-96</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>8.011809965137685e-96</v>
+        <v>8.017380290027829e-96</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>7.522681478764347e-96</v>
+        <v>7.501633040285507e-96</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>7.273505374737394e-96</v>
+        <v>7.279776759726233e-96</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>6.757948979411731e-96</v>
+        <v>6.775269895341965e-96</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>6.246850792652338e-96</v>
+        <v>6.238366798213008e-96</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>6.015148976041892e-96</v>
+        <v>6.000863676637847e-96</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>5.680564047377995e-96</v>
+        <v>5.668749126956585e-96</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>5.289818119576464e-96</v>
+        <v>5.283208450548421e-96</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>4.938888945350046e-96</v>
+        <v>4.937414821252194e-96</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>4.613365380851875e-96</v>
+        <v>4.615808100703937e-96</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>4.286877560935583e-96</v>
+        <v>4.291048783074919e-96</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>3.93518701708822e-96</v>
+        <v>3.938107176354299e-96</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>3.555802442648749e-96</v>
+        <v>3.555521184612669e-96</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>3.158946390200038e-96</v>
+        <v>3.1556068362265e-96</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>2.755015385315694e-96</v>
+        <v>2.750828715795449e-96</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>2.354953284260825e-96</v>
+        <v>2.352690497064741e-96</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.970414912669546e-96</v>
+        <v>1.971447653751681e-96</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>1.61310260818122e-96</v>
+        <v>1.617272246014801e-96</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>1.29382297639506e-96</v>
+        <v>1.2996366933908e-96</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>1.017475375959872e-96</v>
+        <v>1.023399368197149e-96</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>7.865503948165357e-97</v>
+        <v>7.915335185856957e-97</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>6.010351925491434e-97</v>
+        <v>6.044973557345984e-97</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>4.557644814085321e-97</v>
+        <v>4.575696235107992e-97</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>3.449554571913211e-97</v>
+        <v>3.453948233181477e-97</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>2.63204266704602e-97</v>
+        <v>2.62731617032635e-97</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>2.054546010402677e-97</v>
+        <v>2.044433656034039e-97</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>1.666630141168683e-97</v>
+        <v>1.653973049563994e-97</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>1.417860598530015e-97</v>
+        <v>1.404606710176139e-97</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>1.2578029216721e-97</v>
+        <v>1.24500699712985e-97</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>1.137962105012002e-97</v>
+        <v>1.125822491027697e-97</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>1.03648673161856e-97</v>
+        <v>1.024850441693554e-97</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>9.508843947924318e-98</v>
+        <v>9.396140965300779e-98</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>8.790984783307496e-98</v>
+        <v>8.68080754685109e-98</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>8.190723660306711e-98</v>
+        <v>8.082177153065107e-98</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>7.687494416894312e-98</v>
+        <v>7.579922775422248e-98</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>7.260730891041834e-98</v>
+        <v>7.153717405401103e-98</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>6.889866920721086e-98</v>
+        <v>6.783234034480556e-98</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>6.554336343903753e-98</v>
+        <v>6.448145654139344e-98</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>6.236279356502123e-98</v>
+        <v>6.130797487032326e-98</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>5.931243452930109e-98</v>
+        <v>5.826772990308697e-98</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>5.638920336389182e-98</v>
+        <v>5.535747572058882e-98</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>5.359002923324085e-98</v>
+        <v>5.257397838317779e-98</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>5.091184130179173e-98</v>
+        <v>4.99140039511989e-98</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>4.835156873398928e-98</v>
+        <v>4.737431848499847e-98</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>4.590614069427728e-98</v>
+        <v>4.495168804492183e-98</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>4.357248634710278e-98</v>
+        <v>4.264287869131749e-98</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>4.134753485690948e-98</v>
+        <v>4.044465648453067e-98</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>3.922821538814132e-98</v>
+        <v>3.835378748490684e-98</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>3.721145710524505e-98</v>
+        <v>3.636703775279419e-98</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>3.529418917266453e-98</v>
+        <v>3.448117334853814e-98</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>3.347334075484461e-98</v>
+        <v>3.269296033248503e-98</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>3.174584101622937e-98</v>
+        <v>3.099916476498046e-98</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>3.010861912126523e-98</v>
+        <v>2.939655270637232e-98</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>2.855860423439625e-98</v>
+        <v>2.788189021700617e-98</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>2.709272552006658e-98</v>
+        <v>2.645194335722773e-98</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>2.570791214272244e-98</v>
+        <v>2.510347818738466e-98</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>2.440109326680797e-98</v>
+        <v>2.383326076782261e-98</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>2.316919805676803e-98</v>
+        <v>2.263805715888797e-98</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>2.200915567704694e-98</v>
+        <v>2.151463342092658e-98</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>2.091789529209061e-98</v>
+        <v>2.045975561428581e-98</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>1.989234606634336e-98</v>
+        <v>1.947018979931148e-98</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>1.892943716424958e-98</v>
+        <v>1.854270203634955e-98</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>1.8026097750255e-98</v>
+        <v>1.767405838574719e-98</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>1.717925698880403e-98</v>
+        <v>1.686102490785034e-98</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>1.63858440443415e-98</v>
+        <v>1.610036766300532e-98</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>1.564278808131194e-98</v>
+        <v>1.53888527115582e-98</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>1.494701826416087e-98</v>
+        <v>1.472324611385596e-98</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>1.429546375733279e-98</v>
+        <v>1.410031393024463e-98</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>1.368505372527253e-98</v>
+        <v>1.351682222107055e-98</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>1.31127173324247e-98</v>
+        <v>1.296953704667982e-98</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>1.257538374323467e-98</v>
+        <v>1.245522446741931e-98</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>1.206998212214701e-98</v>
+        <v>1.197065054363511e-98</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>1.159344175028379e-98</v>
+        <v>1.151258146990225e-98</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>1.114310880157607e-98</v>
+        <v>1.107826304560323e-98</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>1.071768269864387e-98</v>
+        <v>1.0666497884158e-98</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>1.031613696351314e-98</v>
+        <v>1.027640393038584e-98</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>9.937445118210363e-99</v>
+        <v>9.907099129106551e-99</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>9.580580684761461e-99</v>
+        <v>9.557701425139401e-99</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>9.244517185192564e-99</v>
+        <v>9.227328763303846e-99</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>8.92822814152965e-99</v>
+        <v>8.915099088419202e-99</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>8.630687075799125e-99</v>
+        <v>8.620130345305199e-99</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>8.350867510026965e-99</v>
+        <v>8.341540478781145e-99</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>8.087742966239288e-99</v>
+        <v>8.078447433666494e-99</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>7.840286966462104e-99</v>
+        <v>7.829969154780586e-99</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>7.607473032721761e-99</v>
+        <v>7.595223586943099e-99</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>7.388274687044261e-99</v>
+        <v>7.373328674973368e-99</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>7.181665451455635e-99</v>
+        <v>7.163402363690755e-99</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>6.986618847982187e-99</v>
+        <v>6.964562597914899e-99</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>6.802108398649944e-99</v>
+        <v>6.775927322465157e-99</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>6.627107625485024e-99</v>
+        <v>6.596614482160976e-99</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>6.460590050513477e-99</v>
+        <v>6.425742021821738e-99</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>6.301529195761571e-99</v>
+        <v>6.262427886267046e-99</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>6.148898583255349e-99</v>
+        <v>6.105790020316273e-99</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>6.001671735020868e-99</v>
+        <v>5.954946368788807e-99</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>5.858822173084379e-99</v>
+        <v>5.809014876504231e-99</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>5.719323419471936e-99</v>
+        <v>5.667113488281931e-99</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>5.582148996209655e-99</v>
+        <v>5.528360148941356e-99</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>5.446272425323603e-99</v>
+        <v>5.391872803301902e-99</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>5.310667228840015e-99</v>
+        <v>5.256769396183138e-99</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>5.174641291827454e-99</v>
+        <v>5.122466320313088e-99</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>5.039288957289802e-99</v>
+        <v>4.989974536499643e-99</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>4.906298755344975e-99</v>
+        <v>4.860835368895267e-99</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>4.777359616261396e-99</v>
+        <v>4.73659049882132e-99</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>4.654160470307546e-99</v>
+        <v>4.618781607599214e-99</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>4.538390247751854e-99</v>
+        <v>4.508950376550318e-99</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>4.431737878862906e-99</v>
+        <v>4.408638486996148e-99</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>4.33589229390913e-99</v>
+        <v>4.319387620258067e-99</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>4.252542423158974e-99</v>
+        <v>4.242739457657457e-99</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>4.183377196880991e-99</v>
+        <v>4.180235680515805e-99</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>4.130085545343627e-99</v>
+        <v>4.133417970154488e-99</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>4.094356398815359e-99</v>
+        <v>4.103828007894922e-99</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>4.077878687564668e-99</v>
+        <v>4.093007475058522e-99</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>4.082341341860047e-99</v>
+        <v>4.102498052966711e-99</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>4.109433291969969e-99</v>
+        <v>4.133841422940898e-99</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>4.160843468162944e-99</v>
+        <v>4.188579266302528e-99</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>4.238260800707404e-99</v>
+        <v>4.268253264372965e-99</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>4.343107346538343e-99</v>
+        <v>4.37415507126747e-99</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>4.473970274205064e-99</v>
+        <v>4.504920402369684e-99</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>4.627727292597052e-99</v>
+        <v>4.657583421431261e-99</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>4.801232537449211e-99</v>
+        <v>4.829156207082387e-99</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>4.991340144496641e-99</v>
+        <v>5.016650837953454e-99</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>5.194904249474381e-99</v>
+        <v>5.217079392674787e-99</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>5.40877898811757e-99</v>
+        <v>5.42745394987681e-99</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>5.629818496161049e-99</v>
+        <v>5.644786588189659e-99</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>5.854876909339954e-99</v>
+        <v>5.866089386243753e-99</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>6.080808363389425e-99</v>
+        <v>6.088374422669517e-99</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>6.304466994044296e-99</v>
+        <v>6.308653776097079e-99</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>6.522706937039708e-99</v>
+        <v>6.523939525156864e-99</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>6.73238232811079e-99</v>
+        <v>6.731243748479289e-99</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>6.930290802649425e-99</v>
+        <v>6.927510305116726e-99</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>7.112537887171703e-99</v>
+        <v>7.108847388835301e-99</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>7.274765235978841e-99</v>
+        <v>7.270803105356126e-99</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>7.412605953907834e-99</v>
+        <v>7.408915237616244e-99</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>7.52169314579549e-99</v>
+        <v>7.518721568552514e-99</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>7.597659916478812e-99</v>
+        <v>7.595759881101989e-99</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>7.636139370794737e-99</v>
+        <v>7.635567958201651e-99</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>7.632764613580181e-99</v>
+        <v>7.633683582788477e-99</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>7.58316874967209e-99</v>
+        <v>7.585644537799451e-99</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>7.482984883907403e-99</v>
+        <v>7.486988606171564e-99</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>7.32784612112297e-99</v>
+        <v>7.333253570841723e-99</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>7.113385566155868e-99</v>
+        <v>7.119977214747045e-99</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>6.835236323842971e-99</v>
+        <v>6.842697320824463e-99</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>6.489678551616682e-99</v>
+        <v>6.49760506737941e-99</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>6.082197739382478e-99</v>
+        <v>6.090187201029889e-99</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>5.625129601761261e-99</v>
+        <v>5.632847842859712e-99</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>5.130972953288747e-99</v>
+        <v>5.138155812664493e-99</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>4.612226608500589e-99</v>
+        <v>4.618679930239777e-99</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>4.081389381933152e-99</v>
+        <v>4.086989015381826e-99</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>3.550960088122095e-99</v>
+        <v>3.55565188788619e-99</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>3.033437541603307e-99</v>
+        <v>3.037237367548655e-99</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>2.541320556912465e-99</v>
+        <v>2.544314274164792e-99</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>2.087107948585904e-99</v>
+        <v>2.089451427530832e-99</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>1.683298531159288e-99</v>
+        <v>1.685217647442331e-99</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>1.342391119168369e-99</v>
+        <v>1.344181753694938e-99</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>1.076884527149347e-99</v>
+        <v>1.078912566084746e-99</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>8.992775696379449e-100</v>
+        <v>9.019789044073735e-100</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>8.18731082653303e-100</v>
+        <v>8.225723232879782e-100</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>7.976964860297357e-100</v>
+        <v>8.026252102750829e-100</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>7.642548514186523e-100</v>
+        <v>7.692950796704362e-100</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>6.457970234139272e-100</v>
+        <v>6.490418078373545e-100</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>4.270947127854658e-100</v>
+        <v>4.267640523614432e-100</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>2.435834118769921e-100</v>
+        <v>2.407971840217881e-100</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>1.740019793731336e-100</v>
+        <v>1.71402083111624e-100</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>1.641474336215219e-100</v>
+        <v>1.629044922146894e-100</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>1.556504388980846e-100</v>
+        <v>1.554087452657382e-100</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>1.365216090955979e-100</v>
+        <v>1.366660245978057e-100</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>1.113006083040249e-100</v>
+        <v>1.114080646018573e-100</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>8.454737040130075e-101</v>
+        <v>8.438742313939906e-101</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>6.06999153409459e-101</v>
+        <v>6.02301478430652e-101</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>4.179227477779824e-101</v>
+        <v>4.106766473987914e-101</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>2.765773405699399e-101</v>
+        <v>2.674768271245811e-101</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>1.80484124478255e-101</v>
+        <v>1.703368450698028e-101</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>1.271642921959698e-101</v>
+        <v>1.168915286963588e-101</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>1.141390364159879e-101</v>
+        <v>1.047757054660108e-101</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>1.38929549831266e-101</v>
+        <v>1.316242028405742e-101</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>1.990570251347953e-101</v>
+        <v>1.950718482819011e-101</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>2.920426550194777e-101</v>
+        <v>2.927534692517491e-101</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>4.206368478721992e-101</v>
+        <v>4.272636421854246e-101</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>6.483093107833737e-101</v>
+        <v>6.587873159646039e-101</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>1.042242968539035e-100</v>
+        <v>1.050586266491848e-100</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>1.494487925065137e-100</v>
+        <v>1.497605979566956e-100</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>1.845370841050992e-100</v>
+        <v>1.845112048937168e-100</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>2.035538834945383e-100</v>
+        <v>2.035821720021401e-100</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>2.133463507573068e-100</v>
+        <v>2.136621182968429e-100</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>2.215910672134836e-100</v>
+        <v>2.222453641567556e-100</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>2.359640172445385e-100</v>
+        <v>2.36825644102265e-100</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>2.609895822166333e-100</v>
+        <v>2.618035880614444e-100</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>2.906838390692873e-100</v>
+        <v>2.912665712403757e-100</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>3.168753984672016e-100</v>
+        <v>3.171551051864551e-100</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>3.313928710750807e-100</v>
+        <v>3.314097014470817e-100</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>3.268973110170494e-100</v>
+        <v>3.267961761641263e-100</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>3.072445283233547e-100</v>
+        <v>3.071790974472403e-100</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>2.843054695868862e-100</v>
+        <v>2.84369433795923e-100</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>2.701252636689949e-100</v>
+        <v>2.70350842226605e-100</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>2.737401916117676e-100</v>
+        <v>2.74110014204711e-100</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>2.912685653843485e-100</v>
+        <v>2.917666865917451e-100</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>3.153626169430963e-100</v>
+        <v>3.159882041644925e-100</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>3.386745358592745e-100</v>
+        <v>3.394418694820272e-100</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>3.538565306513864e-100</v>
+        <v>3.547950039692604e-100</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>3.556191023005237e-100</v>
+        <v>3.567643785588925e-100</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>3.463940831362044e-100</v>
+        <v>3.477549227029474e-100</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>3.304235406511021e-100</v>
+        <v>3.319740237798823e-100</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>3.119495423378858e-100</v>
+        <v>3.136290691681506e-100</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>2.950575279498453e-100</v>
+        <v>2.967727192925111e-100</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>2.813739582453123e-100</v>
+        <v>2.830284969894813e-100</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>2.705715730487748e-100</v>
+        <v>2.720899139132682e-100</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>2.622692149016821e-100</v>
+        <v>2.635972385157572e-100</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>2.560857263454942e-100</v>
+        <v>2.571907392488446e-100</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>2.516399499216597e-100</v>
+        <v>2.525106845644148e-100</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>2.485507281716312e-100</v>
+        <v>2.491973429143566e-100</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>2.464369036368606e-100</v>
+        <v>2.468909827505581e-100</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>2.449177491972434e-100</v>
+        <v>2.452322245515328e-100</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>2.436685914458062e-100</v>
+        <v>2.439075420068006e-100</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>2.424758323573322e-100</v>
+        <v>2.426942709920386e-100</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>2.41138949805388e-100</v>
+        <v>2.413804437652429e-100</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>2.394574216635386e-100</v>
+        <v>2.397540925844079e-100</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>2.372307258053498e-100</v>
+        <v>2.376032497075289e-100</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>2.342583401043857e-100</v>
+        <v>2.347159473925993e-100</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>2.303397424342146e-100</v>
+        <v>2.308802178976168e-100</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>2.252744106684011e-100</v>
+        <v>2.258840934805753e-100</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>2.188623687832998e-100</v>
+        <v>2.195161754157168e-100</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>2.110165663328106e-100</v>
+        <v>2.116827287020824e-100</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>2.019005201772349e-100</v>
+        <v>2.025510989833761e-100</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>1.917114370252373e-100</v>
+        <v>1.923237353150574e-100</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>1.806465235854774e-100</v>
+        <v>1.812030867525808e-100</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>1.689029865666298e-100</v>
+        <v>1.693916023514162e-100</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>1.566780326773544e-100</v>
+        <v>1.570917311670181e-100</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>1.4416886862631e-100</v>
+        <v>1.445059222548408e-100</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>1.315727011221727e-100</v>
+        <v>1.318366246703552e-100</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.190839887681732e-100</v>
+        <v>1.192833222909976e-100</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.068553939911196e-100</v>
+        <v>1.070004013417371e-100</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>9.500705495975942e-101</v>
+        <v>9.510715470139647e-101</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>8.365825276797251e-101</v>
+        <v>8.37219504736673e-101</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>7.29282685096228e-101</v>
+        <v>7.296315676222472e-101</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>6.293638327857525e-101</v>
+        <v>6.294914167074503e-101</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>5.38018781687082e-101</v>
+        <v>5.379827330291793e-101</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>4.564403427388626e-101</v>
+        <v>4.562891976241939e-101</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>3.858213268797872e-101</v>
+        <v>3.855944915293004e-101</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>3.269358955995143e-101</v>
+        <v>3.266645087359067e-101</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>2.788316730843262e-101</v>
+        <v>2.7854216254021e-101</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>2.401112641005915e-101</v>
+        <v>2.398262635433731e-101</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>2.093772729591389e-101</v>
+        <v>2.091156218919578e-101</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>1.852323039707876e-101</v>
+        <v>1.850090477325162e-101</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>1.662789614463876e-101</v>
+        <v>1.661053512116311e-101</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>1.511198496967556e-101</v>
+        <v>1.510033424758523e-101</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>1.383575730327148e-101</v>
+        <v>1.383018316717358e-101</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>1.265973995605618e-101</v>
+        <v>1.266022960229255e-101</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>1.149441983463974e-101</v>
+        <v>1.150064291871891e-101</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>1.035871130705008e-101</v>
+        <v>1.037015351888704e-101</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>9.28573980249276e-102</v>
+        <v>9.301720373467416e-102</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>8.308630750171783e-102</v>
+        <v>8.328302453128985e-102</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>7.460509579291675e-102</v>
+        <v>7.4828587285412e-102</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>6.774501719056693e-102</v>
+        <v>6.798348170373247e-102</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>6.283732598672e-102</v>
+        <v>6.307729749295212e-102</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>6.021327647341773e-102</v>
+        <v>6.0439624359762e-102</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>6.019756175817006e-102</v>
+        <v>6.039353113199065e-102</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>6.274732678765524e-102</v>
+        <v>6.289679634250458e-102</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>6.726455044224061e-102</v>
+        <v>6.735544286946439e-102</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>7.310511454017177e-102</v>
+        <v>7.312967970535863e-102</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>7.962490089969675e-102</v>
+        <v>7.957971584267815e-102</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>8.617979133905439e-102</v>
+        <v>8.606576027390486e-102</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>9.21256676764926e-102</v>
+        <v>9.19480219915295e-102</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>9.681841173025806e-102</v>
+        <v>9.658670998804167e-102</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>9.961390531859133e-102</v>
+        <v>9.93420332559249e-102</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>9.999622275779984e-102</v>
+        <v>9.970152206856076e-102</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>9.81203464766785e-102</v>
+        <v>9.781905521063178e-102</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>9.436000570910154e-102</v>
+        <v>9.406577163286026e-102</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>8.908905007260625e-102</v>
+        <v>8.88129298514845e-102</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>8.268132918472524e-102</v>
+        <v>8.243178838273813e-102</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>7.551069266299232e-102</v>
+        <v>7.529360574285605e-102</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>6.795099012493786e-102</v>
+        <v>6.776964044806959e-102</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>6.037607118810266e-102</v>
+        <v>6.023115101462064e-102</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>5.315977962001495e-102</v>
+        <v>5.304939014913738e-102</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>4.659754939854837e-102</v>
+        <v>4.651774225107636e-102</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>4.070983730714846e-102</v>
+        <v>4.065651346352746e-102</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>3.545685536989902e-102</v>
+        <v>3.542618120859905e-102</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>3.0798815610887e-102</v>
+        <v>3.078722290840259e-102</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>2.66959300541976e-102</v>
+        <v>2.670011598504783e-102</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>2.310841072392144e-102</v>
+        <v>2.312533786064989e-102</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>1.999646964414346e-102</v>
+        <v>2.002336595731826e-102</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>1.732031883895061e-102</v>
+        <v>1.735467769716441e-102</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>1.504017033242887e-102</v>
+        <v>1.507975050229887e-102</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>1.311623614866722e-102</v>
+        <v>1.315906179483512e-102</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>1.150872831175146e-102</v>
+        <v>1.15530889968835e-102</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>1.017785884576799e-102</v>
+        <v>1.022230953055495e-102</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>9.083839774804929e-103</v>
+        <v>9.127200817962107e-103</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>8.186883122948544e-103</v>
+        <v>8.228240281215767e-103</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>7.447200914285465e-103</v>
+        <v>7.485905342427091e-103</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>6.825005172903277e-103</v>
+        <v>6.860673423708193e-103</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>6.280507922888541e-103</v>
+        <v>6.313021947170166e-103</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>5.777639665685401e-103</v>
+        <v>5.807120771637171e-103</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>5.305171205347428e-103</v>
+        <v>5.331806100917794e-103</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>4.862051144622168e-103</v>
+        <v>4.886020661986417e-103</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>4.44725883471292e-103</v>
+        <v>4.468737714940518e-103</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>4.059773626823198e-103</v>
+        <v>4.078930519877787e-103</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>3.698574872156365e-103</v>
+        <v>3.715572336895763e-103</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>3.36264192191626e-103</v>
+        <v>3.377636426092463e-103</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>3.050954127306233e-103</v>
+        <v>3.064096047565413e-103</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>2.762490839529676e-103</v>
+        <v>2.773924461412181e-103</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>2.496231409790362e-103</v>
+        <v>2.506094927730721e-103</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>2.251155189291676e-103</v>
+        <v>2.259580706618591e-103</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>2.026241529237036e-103</v>
+        <v>2.033355058173387e-103</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>1.820469780830161e-103</v>
+        <v>1.826391242493006e-103</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>1.632819295274462e-103</v>
+        <v>1.637662519675036e-103</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>1.462269423773382e-103</v>
+        <v>1.466142149817096e-103</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>1.307799517530658e-103</v>
+        <v>1.310803393017099e-103</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>1.168388927749527e-103</v>
+        <v>1.170619509372461e-103</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>1.043017005633651e-103</v>
+        <v>1.044563758981019e-103</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>9.306631023866403e-104</v>
+        <v>9.316094019405628e-104</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>8.303065692118086e-104</v>
+        <v>8.307296983485809e-104</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>7.409267573128544e-104</v>
+        <v>7.408979083029494e-104</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>6.615030178931323e-104</v>
+        <v>6.610872919011997e-104</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>5.910147021562428e-104</v>
+        <v>5.902711092411094e-104</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>5.284411613057544e-104</v>
+        <v>5.274226204204243e-104</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>4.727617465450702e-104</v>
+        <v>4.715150855367239e-104</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>4.229558090777654e-104</v>
+        <v>4.215217646877606e-104</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>3.78040663479117e-104</v>
+        <v>3.764540751910049e-104</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>3.374762517981228e-104</v>
+        <v>3.357683219756177e-104</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>3.010087022633132e-104</v>
+        <v>2.992084574699995e-104</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>2.683889408084883e-104</v>
+        <v>2.665232563057938e-104</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>2.393678933673615e-104</v>
+        <v>2.374614931145571e-104</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>2.136964858737365e-104</v>
+        <v>2.117719425279363e-104</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.911256442614047e-104</v>
+        <v>1.892033791775658e-104</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.714062944640977e-104</v>
+        <v>1.695045776950207e-104</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.542893624156098e-104</v>
+        <v>1.524243127119382e-104</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>1.395257740497255e-104</v>
+        <v>1.377113588599462e-104</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>1.268664553001908e-104</v>
+        <v>1.251144907706338e-104</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>1.160623321008013e-104</v>
+        <v>1.143824830756397e-104</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>1.068643303853101e-104</v>
+        <v>1.052641104065602e-104</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>9.902337608749998e-105</v>
+        <v>9.750814739502152e-105</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>9.229039514114902e-105</v>
+        <v>9.086336867264457e-105</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>8.641631348001755e-105</v>
+        <v>8.50785488710331e-105</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>8.115205703788448e-105</v>
+        <v>7.990246262180915e-105</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>7.625234504262509e-105</v>
+        <v>7.508771322984534e-105</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>7.158149661720212e-105</v>
+        <v>7.049752610732605e-105</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>6.712750817657639e-105</v>
+        <v>6.611995746719916e-105</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>6.288499780320267e-105</v>
+        <v>6.194974694862839e-105</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>5.884858357952422e-105</v>
+        <v>5.798163419076627e-105</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>5.501288358799928e-105</v>
+        <v>5.421035883277999e-105</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>5.137251591107191e-105</v>
+        <v>5.063066051382283e-105</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>4.79220986311966e-105</v>
+        <v>4.723727887305832e-105</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>4.465624983082716e-105</v>
+        <v>4.402495354964932e-105</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>4.156958759240868e-105</v>
+        <v>4.098842418275012e-105</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>3.865672999839511e-105</v>
+        <v>3.812243041152369e-105</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>3.591229513123984e-105</v>
+        <v>3.54217118751325e-105</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>3.333090107338887e-105</v>
+        <v>3.28810082127317e-105</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>3.090716590729568e-105</v>
+        <v>3.049505906348386e-105</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>2.863570771541323e-105</v>
+        <v>2.825860406655098e-105</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>2.651114458018837e-105</v>
+        <v>2.616638286108908e-105</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>2.452809458407417e-105</v>
+        <v>2.421313508626028e-105</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>2.26811758095232e-105</v>
+        <v>2.239360038122624e-105</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>2.096500633898307e-105</v>
+        <v>2.07025183851437e-105</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>1.937420425490786e-105</v>
+        <v>1.913462873717579e-105</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>1.790338763974565e-105</v>
+        <v>1.768467107647974e-105</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>1.654717457594887e-105</v>
+        <v>1.634738504221705e-105</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>1.530018314596957e-105</v>
+        <v>1.511751027354885e-105</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>1.415703143225645e-105</v>
+        <v>1.398978640963296e-105</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.311233751726165e-105</v>
+        <v>1.29589530896306e-105</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.216071948343691e-105</v>
+        <v>1.201974995270262e-105</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.129679541323152e-105</v>
+        <v>1.116691663800738e-105</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.051518338909729e-105</v>
+        <v>1.039519278470582e-105</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>9.810501493485794e-106</v>
+        <v>9.699318031958577e-106</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>9.177367808846721e-106</v>
+        <v>9.074032018924457e-106</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>8.610400417631689e-106</v>
+        <v>8.514074384764168e-106</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>8.104217402292081e-106</v>
+        <v>8.014184768638184e-106</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>7.653436845277954e-106</v>
+        <v>7.569102809705661e-106</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>7.252676829041074e-106</v>
+        <v>7.17356814712746e-106</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>6.896555436031677e-106</v>
+        <v>6.822320420062918e-106</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>6.579794044209222e-106</v>
+        <v>6.51019854060087e-106</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>6.298692164748021e-106</v>
+        <v>6.233558097677982e-106</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>6.050781012342525e-106</v>
+        <v>5.989938418203606e-106</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>5.833624474355486e-106</v>
+        <v>5.776910229401796e-106</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>5.644786438149537e-106</v>
+        <v>5.592044258496494e-106</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>5.481830791086819e-106</v>
+        <v>5.432911232711155e-106</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>5.342321420529995e-106</v>
+        <v>5.297081879269744e-106</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>5.223822213841641e-106</v>
+        <v>5.182126925396149e-106</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>5.123897058384024e-106</v>
+        <v>5.085617098313951e-106</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>5.04010984151981e-106</v>
+        <v>5.005123125247115e-106</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>4.970024450611325e-106</v>
+        <v>4.938215733419284e-106</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>4.911204773021131e-106</v>
+        <v>4.882465650054327e-106</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>4.861214696111752e-106</v>
+        <v>4.835443602376072e-106</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>4.817618107245573e-106</v>
+        <v>4.794720317608222e-106</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>4.777978893785127e-106</v>
+        <v>4.757866522974613e-106</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>4.739860943092924e-106</v>
+        <v>4.722452945699062e-106</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>4.700828142531375e-106</v>
+        <v>4.686050313005297e-106</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>4.658444379462999e-106</v>
+        <v>4.646229352117137e-106</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>4.610273541250314e-106</v>
+        <v>4.600560790258413e-106</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>4.55387951525572e-106</v>
+        <v>4.546615354652835e-106</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>4.486826188841733e-106</v>
+        <v>4.481963772524229e-106</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>4.406677449370912e-106</v>
+        <v>4.404176771096457e-106</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>4.311412435346487e-106</v>
+        <v>4.311238285979721e-106</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>4.203475934389466e-106</v>
+        <v>4.205575933933148e-106</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>4.08803088148992e-106</v>
+        <v>4.092322107641008e-106</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>3.970278726614688e-106</v>
+        <v>3.976647525296751e-106</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>3.855420919731025e-106</v>
+        <v>3.863722905094234e-106</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>3.748658910805774e-106</v>
+        <v>3.758718965226903e-106</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>3.655194149806093e-106</v>
+        <v>3.666806423888524e-106</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>3.580228086699091e-106</v>
+        <v>3.593155999272807e-106</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>3.528962171451685e-106</v>
+        <v>3.542938409573276e-106</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>3.506597854031002e-106</v>
+        <v>3.521324372983661e-106</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>3.518336584404067e-106</v>
+        <v>3.533484607697592e-106</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>3.569379812537951e-106</v>
+        <v>3.584589831908747e-106</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>3.664928988399714e-106</v>
+        <v>3.679810763810786e-106</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>3.808656116360974e-106</v>
+        <v>3.822799012168331e-106</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>3.993720114596459e-106</v>
+        <v>4.006764148175212e-106</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>4.208860370707464e-106</v>
+        <v>4.220526080139529e-106</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>4.442800978245475e-106</v>
+        <v>4.452889525678491e-106</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>4.684266030761393e-106</v>
+        <v>4.692659202408726e-106</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>4.921979621806099e-106</v>
+        <v>4.92863982794684e-106</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>5.144665844931115e-106</v>
+        <v>5.149636119910077e-106</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>5.341048793687309e-106</v>
+        <v>5.344452795915034e-106</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>5.499852561625646e-106</v>
+        <v>5.501894573578399e-106</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>5.611853720869193e-106</v>
+        <v>5.612803287652309e-106</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>5.677201949843553e-106</v>
+        <v>5.677323727726407e-106</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>5.69872105711699e-106</v>
+        <v>5.6982547994479e-106</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>5.679235053049059e-106</v>
+        <v>5.678395608745007e-106</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>5.621567947999302e-106</v>
+        <v>5.620545261545944e-106</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>5.52854375232713e-106</v>
+        <v>5.527502863778788e-106</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>5.402986476392094e-106</v>
+        <v>5.402067521371758e-106</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>5.247720130553859e-106</v>
+        <v>5.247038340253189e-106</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>5.065568725171658e-106</v>
+        <v>5.065214426350984e-106</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>4.859356270605135e-106</v>
+        <v>4.859394885593454e-106</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>4.631906777214019e-106</v>
+        <v>4.632378823908995e-106</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>4.38604425535741e-106</v>
+        <v>4.386965347225381e-106</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>4.12459271539502e-106</v>
+        <v>4.125953561470988e-106</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>3.850376167686618e-106</v>
+        <v>3.852142572574257e-106</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>3.566218622591222e-106</v>
+        <v>3.56833148646287e-106</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>3.274944090468588e-106</v>
+        <v>3.277319409065258e-106</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>2.979376581678498e-106</v>
+        <v>2.981905446309866e-106</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>2.682381983935495e-106</v>
+        <v>2.684934938750317e-106</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>2.38710693380363e-106</v>
+        <v>2.389563187248635e-106</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>2.096813469226709e-106</v>
+        <v>2.099072901371565e-106</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>1.814763982914952e-106</v>
+        <v>1.816747182365219e-106</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>1.544220867579614e-106</v>
+        <v>1.545869131476741e-106</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.288446515930954e-106</v>
+        <v>1.28972184995228e-106</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.050703320679972e-106</v>
+        <v>1.051588439038725e-106</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>8.342536745376012e-107</v>
+        <v>8.347519999828996e-107</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>6.423599702142003e-107</v>
+        <v>6.424956340310521e-107</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>4.782846004207239e-107</v>
+        <v>4.781024424300266e-107</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>3.452863579463622e-107</v>
+        <v>3.448519118523836e-107</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>2.446300630912446e-107</v>
+        <v>2.44021440549112e-107</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>1.722788131816566e-107</v>
+        <v>1.715651245498545e-107</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>1.233242972360295e-107</v>
+        <v>1.225621047415989e-107</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>9.285820427267539e-108</v>
+        <v>9.209152201121386e-108</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>7.597222331005507e-108</v>
+        <v>7.523251724571652e-108</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>6.775804336653822e-108</v>
+        <v>6.706423133203321e-108</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>6.33235839066001e-108</v>
+        <v>6.268207737259059e-108</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>5.938920601434944e-108</v>
+        <v>5.879805974193739e-108</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>5.56336754655079e-108</v>
+        <v>5.509020102305429e-108</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>5.205267372989276e-108</v>
+        <v>5.155425508223482e-108</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>4.864188227732064e-108</v>
+        <v>4.81859757857719e-108</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>4.539698257759906e-108</v>
+        <v>4.498111699994944e-108</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>4.231365610054483e-108</v>
+        <v>4.193543259106051e-108</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>3.938758431597416e-108</v>
+        <v>3.904467642539761e-108</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>3.661444869369544e-108</v>
+        <v>3.630460236924549e-108</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>3.3989930703525e-108</v>
+        <v>3.37109642888968e-108</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>3.150971181527868e-108</v>
+        <v>3.125951605064363e-108</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>2.916947349876568e-108</v>
+        <v>2.894601152077155e-108</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>2.696489722380191e-108</v>
+        <v>2.676620456557277e-108</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>2.489166446020287e-108</v>
+        <v>2.471584905133907e-108</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>2.294545667777845e-108</v>
+        <v>2.279069884435672e-108</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>2.112195534634583e-108</v>
+        <v>2.098650781091913e-108</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>1.941684193571537e-108</v>
+        <v>1.929902981731305e-108</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>1.782579791570242e-108</v>
+        <v>1.772401872983011e-108</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>1.634450475612192e-108</v>
+        <v>1.625722841476155e-108</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>1.496864392678486e-108</v>
+        <v>1.489441273839468e-108</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>1.369389689750625e-108</v>
+        <v>1.363132556702085e-108</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>1.251594513810079e-108</v>
+        <v>1.246372076693103e-108</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>1.143047011837999e-108</v>
+        <v>1.138735220441307e-108</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>1.043315330815861e-108</v>
+        <v>1.039797374575805e-108</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>9.519676177251087e-109</v>
+        <v>9.4913392572567e-109</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>8.685720195469432e-109</v>
+        <v>8.66320260519735e-109</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>7.926966832628801e-109</v>
+        <v>7.909317655871469e-109</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>7.239097558541487e-109</v>
+        <v>7.225438275567669e-109</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>6.617793843021851e-109</v>
+        <v>6.607318330576617e-109</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>6.058737155884023e-109</v>
+        <v>6.050711687188758e-109</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>5.557608966940649e-109</v>
+        <v>5.551372211693052e-109</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>5.11009074600591e-109</v>
+        <v>5.105053770379994e-109</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>4.711863962893794e-109</v>
+        <v>4.70751022953988e-109</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>4.358610087417238e-109</v>
+        <v>4.354495455461966e-109</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>4.046010589390272e-109</v>
+        <v>4.041763314436592e-109</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>3.769746938626779e-109</v>
+        <v>3.765067672753955e-109</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>3.525500604939917e-109</v>
+        <v>3.520162396703524e-109</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>3.308953058143783e-109</v>
+        <v>3.302801352575712e-109</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>3.115785768051641e-109</v>
+        <v>3.108738406660093e-109</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>2.94168020447735e-109</v>
+        <v>2.93372742524684e-109</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>2.782318688389486e-109</v>
+        <v>2.773523109027808e-109</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>2.634273930644169e-109</v>
+        <v>2.624753023293319e-109</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>2.496694765253105e-109</v>
+        <v>2.486570151395269e-109</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>2.369193218510246e-109</v>
+        <v>2.35858155208681e-109</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>2.251381316709203e-109</v>
+        <v>2.240394284120751e-109</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>2.142871086143938e-109</v>
+        <v>2.131615406250252e-109</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>2.043274553108375e-109</v>
+        <v>2.03185197722844e-109</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>1.952203743896178e-109</v>
+        <v>1.940711055808173e-109</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>1.86927068480128e-109</v>
+        <v>1.857799700742587e-109</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>1.794087402117588e-109</v>
+        <v>1.782724970784785e-109</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>1.726265922138806e-109</v>
+        <v>1.715093924687673e-109</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>1.665418271158846e-109</v>
+        <v>1.654513621204361e-109</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>1.611156475471597e-109</v>
+        <v>1.600591119087935e-109</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>1.5630925613708e-109</v>
+        <v>1.552933477091338e-109</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>1.520838555150384e-109</v>
+        <v>1.511147753967697e-109</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>1.484006483104115e-109</v>
+        <v>1.474841008469976e-109</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>1.452208371525873e-109</v>
+        <v>1.443620299351257e-109</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>1.425056246709523e-109</v>
+        <v>1.4170926853646e-109</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>1.402162134948855e-109</v>
+        <v>1.394865225262998e-109</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>1.383138062537739e-109</v>
+        <v>1.376544977799517e-109</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>1.367596055770026e-109</v>
+        <v>1.361739001727208e-109</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>1.355148140939532e-109</v>
+        <v>1.350054355799087e-109</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>1.34540634434011e-109</v>
+        <v>1.341098098768206e-109</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>1.337982692265609e-109</v>
+        <v>1.334477289387612e-109</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>1.332489211009857e-109</v>
+        <v>1.329798986410332e-109</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>1.328537926866704e-109</v>
+        <v>1.326670248589415e-109</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>1.325740866129984e-109</v>
+        <v>1.324698134677898e-109</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>1.323710055093543e-109</v>
+        <v>1.32348970342882e-109</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>1.322057520051224e-109</v>
+        <v>1.322652013595227e-109</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.320395287296863e-109</v>
+        <v>1.321792123930153e-109</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.318335383124305e-109</v>
+        <v>1.320517093186641e-109</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.315489833827392e-109</v>
+        <v>1.318433980117734e-109</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.311470665699961e-109</v>
+        <v>1.315149843476467e-109</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.305889905035855e-109</v>
+        <v>1.310271742015881e-109</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>1.298359578128922e-109</v>
+        <v>1.303406734489025e-109</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.28849171127299e-109</v>
+        <v>1.294161879648926e-109</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.275898330761919e-109</v>
+        <v>1.282144236248641e-109</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.260191462889526e-109</v>
+        <v>1.26696086304119e-109</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.240983138667145e-109</v>
+        <v>1.248218823527998e-109</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.218020784471055e-109</v>
+        <v>1.225661463348308e-109</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.191541302421776e-109</v>
+        <v>1.199524809710311e-109</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.16189216872561e-109</v>
+        <v>1.17015618811371e-109</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.129420859588957e-109</v>
+        <v>1.137902924058306e-109</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>1.09447485121811e-109</v>
+        <v>1.103112343043789e-109</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>1.057401619819443e-109</v>
+        <v>1.066131770569938e-109</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>1.018548641599342e-109</v>
+        <v>1.027308532136536e-109</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>9.782633927640851e-110</v>
+        <v>9.869899532432636e-110</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>9.368933495200559e-110</v>
+        <v>9.455233593899036e-110</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>8.947859880736415e-110</v>
+        <v>9.032560760762436e-110</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>8.522887846311142e-110</v>
+        <v>8.605354288019563e-110</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>8.097492153988606e-110</v>
+        <v>8.177087430668281e-110</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>7.67514756583268e-110</v>
+        <v>7.751233443706476e-110</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>7.25932884390608e-110</v>
+        <v>7.331265582130862e-110</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>6.853510750273045e-110</v>
+        <v>6.920657100939685e-110</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>6.461168046996325e-110</v>
+        <v>6.522881255129693e-110</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>6.08577549613978e-110</v>
+        <v>6.14141129969875e-110</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>5.730678389742193e-110</v>
+        <v>5.77959668959222e-110</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>5.39694896385381e-110</v>
+        <v>5.438613369318862e-110</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>5.083720241970924e-110</v>
+        <v>5.117782996143374e-110</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>4.790063074796275e-110</v>
+        <v>4.816367777314118e-110</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>4.515048313031818e-110</v>
+        <v>4.533629920078652e-110</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>4.257746807380308e-110</v>
+        <v>4.268831631685349e-110</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>4.017229408544438e-110</v>
+        <v>4.021235119382526e-110</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>3.79256696722626e-110</v>
+        <v>3.790102590417835e-110</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>3.582830334128665e-110</v>
+        <v>3.574696252039792e-110</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>3.387090359953756e-110</v>
+        <v>3.374278311496106e-110</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>3.204417895404215e-110</v>
+        <v>3.188110976035078e-110</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>3.033883791182671e-110</v>
+        <v>3.015456452904953e-110</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>2.874558897991303e-110</v>
+        <v>2.855576949353521e-110</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>2.725514066532752e-110</v>
+        <v>2.70773467262904e-110</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>2.585821083210912e-110</v>
+        <v>2.571191669974425e-110</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>2.454712358033633e-110</v>
+        <v>2.445182521930566e-110</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>2.331761703890458e-110</v>
+        <v>2.328883429007176e-110</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>2.216586607228905e-110</v>
+        <v>2.221463123517759e-110</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>2.108804554496177e-110</v>
+        <v>2.122090337775528e-110</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>2.008033032139884e-110</v>
+        <v>2.029933804094073e-110</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>1.913889526607258e-110</v>
+        <v>1.944162254786636e-110</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>1.825991524345808e-110</v>
+        <v>1.863944422166712e-110</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>1.743956511802946e-110</v>
+        <v>1.788449038547708e-110</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>1.667399262756651e-110</v>
+        <v>1.716849629670294e-110</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>1.595849147063769e-110</v>
+        <v>1.648470634416734e-110</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>1.528734970999908e-110</v>
+        <v>1.582814192714999e-110</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>1.465479770840376e-110</v>
+        <v>1.519392640381088e-110</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>1.405506582860665e-110</v>
+        <v>1.457718313231179e-110</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>1.348238443336251e-110</v>
+        <v>1.397303547081443e-110</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>1.293098388542463e-110</v>
+        <v>1.337660677747889e-110</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>1.239501124824074e-110</v>
+        <v>1.278318476819357e-110</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>1.186720589171111e-110</v>
+        <v>1.219083467668552e-110</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>1.133913462981074e-110</v>
+        <v>1.159993530485794e-110</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>1.080232849772089e-110</v>
+        <v>1.101093604969792e-110</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>1.024831853062284e-110</v>
+        <v>1.042428630819254e-110</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>9.672040298400971e-111</v>
+        <v>9.841108145791117e-111</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>9.083662674027487e-111</v>
+        <v>9.265533426192033e-111</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>8.49761341753298e-111</v>
+        <v>8.702535484618577e-111</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>7.928320487472678e-111</v>
+        <v>8.157087695519817e-111</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>7.387876706533118e-111</v>
+        <v>7.633378173056903e-111</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>6.877964734283948e-111</v>
+        <v>7.132094298179872e-111</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>6.397367355866291e-111</v>
+        <v>6.652948281075937e-111</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>5.944867233623531e-111</v>
+        <v>6.195652290637807e-111</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>5.519247029897847e-111</v>
+        <v>5.759918495756966e-111</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>5.11928940703265e-111</v>
+        <v>5.345459065326141e-111</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>4.743777027371256e-111</v>
+        <v>4.951986168237981e-111</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>4.391492553255987e-111</v>
+        <v>4.579211973384088e-111</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>4.061218647030468e-111</v>
+        <v>4.226848649657437e-111</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>3.751737971037096e-111</v>
+        <v>3.894608365949703e-111</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>3.461833187619172e-111</v>
+        <v>3.582203291153517e-111</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>3.190286959119686e-111</v>
+        <v>3.289345594161185e-111</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>2.935881947881852e-111</v>
+        <v>3.015747443865254e-111</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>2.697419649107537e-111</v>
+        <v>2.761114327349173e-111</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>2.474156335683911e-111</v>
+        <v>2.524990378751453e-111</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>2.265815404909399e-111</v>
+        <v>2.306753998703922e-111</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>2.072141556843361e-111</v>
+        <v>2.105776029721649e-111</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>1.892879491545101e-111</v>
+        <v>1.921427314319636e-111</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>1.72777390907345e-111</v>
+        <v>1.753078695012399e-111</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.576569509487726e-111</v>
+        <v>1.600101014314956e-111</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.4390109928472e-111</v>
+        <v>1.461865114742272e-111</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.314843059210774e-111</v>
+        <v>1.337741838808944e-111</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.203810408637731e-111</v>
+        <v>1.227102029029948e-111</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.105657741187304e-111</v>
+        <v>1.129316527920212e-111</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.02012975691847e-111</v>
+        <v>1.043756177994408e-111</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>9.469711558905328e-112</v>
+        <v>9.697918217675357e-112</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>8.858884521849446e-112</v>
+        <v>9.06847901078935e-112</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>8.363718372495239e-112</v>
+        <v>8.546524966380474e-112</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>7.978354157334065e-112</v>
+        <v>8.130404875467668e-112</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>7.696932081947884e-112</v>
+        <v>7.818468709400604e-112</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>7.51359235191973e-112</v>
+        <v>7.609066439530117e-112</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>7.42247517283229e-112</v>
+        <v>7.50054803720668e-112</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>7.417720750268046e-112</v>
+        <v>7.491263473780517e-112</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>7.493469289809764e-112</v>
+        <v>7.579562720602185e-112</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>7.643861216228798e-112</v>
+        <v>7.763795951966521e-112</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>7.902604952650544e-112</v>
+        <v>8.078948926885372e-112</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>8.453358351209291e-112</v>
+        <v>8.69884397023726e-112</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>9.512597710925011e-112</v>
+        <v>9.827540053080756e-112</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>1.112251699871612e-111</v>
+        <v>1.149806114910527e-111</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>1.304773661877489e-111</v>
+        <v>1.347102958922843e-111</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>1.502810892973225e-111</v>
+        <v>1.54827611521414e-111</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>1.680348629021386e-111</v>
+        <v>1.726957161652993e-111</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>1.811372105884615e-111</v>
+        <v>1.85677767610806e-111</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>1.870187618353389e-111</v>
+        <v>1.911701597805889e-111</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>1.851572069605517e-111</v>
+        <v>1.886884113469746e-111</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>1.78274605051398e-111</v>
+        <v>1.811066232122121e-111</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>1.693806187875776e-111</v>
+        <v>1.715966245527757e-111</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>1.61484910848815e-111</v>
+        <v>1.633302445451668e-111</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>1.573077160724514e-111</v>
+        <v>1.591697405116767e-111</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>1.567593083680118e-111</v>
+        <v>1.589718371778729e-111</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>1.581698308836897e-111</v>
+        <v>1.609031523132956e-111</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>1.598518176787441e-111</v>
+        <v>1.631114690160606e-111</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>1.601178028124401e-111</v>
+        <v>1.637445703842908e-111</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>1.574075398678596e-111</v>
+        <v>1.610911744214537e-111</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>1.515918749589747e-111</v>
+        <v>1.550253760003103e-111</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>1.434427221838303e-111</v>
+        <v>1.464194810168592e-111</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>1.337460460880502e-111</v>
+        <v>1.361613605762762e-111</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>1.232878112172318e-111</v>
+        <v>1.251388857837085e-111</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>1.128472668647002e-111</v>
+        <v>1.142320964043771e-111</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>1.028956810362798e-111</v>
+        <v>1.039618638424609e-111</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>9.347475735872597e-112</v>
+        <v>9.434810070934009e-112</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>8.459432052126453e-112</v>
+        <v>8.537354233904053e-112</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>7.62641952131194e-112</v>
+        <v>7.70209240655859e-112</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>6.84942061234922e-112</v>
+        <v>6.927298122297752e-112</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>6.12941779416136e-112</v>
+        <v>6.211244914524579e-112</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>5.467349111482256e-112</v>
+        <v>5.552198727169213e-112</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>4.86260162025716e-112</v>
+        <v>4.948160531765842e-112</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>4.312643875640332e-112</v>
+        <v>4.396803541351402e-112</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>3.814825462684197e-112</v>
+        <v>3.89578064399644e-112</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>3.366495966442687e-112</v>
+        <v>3.44274472777301e-112</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>2.96500497196956e-112</v>
+        <v>3.035348680752997e-112</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>2.607702064317511e-112</v>
+        <v>2.671245391007204e-112</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>2.291936828540334e-112</v>
+        <v>2.348087746607554e-112</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>2.015058849691677e-112</v>
+        <v>2.063528635625823e-112</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>1.774417712824458e-112</v>
+        <v>1.815220946133036e-112</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>1.567363002992531e-112</v>
+        <v>1.600817566201181e-112</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>1.391244305248939e-112</v>
+        <v>1.417971383901408e-112</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>1.243411204647297e-112</v>
+        <v>1.264335287305463e-112</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>1.121195323915254e-112</v>
+        <v>1.137535672528643e-112</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>1.021441039675955e-112</v>
+        <v>1.034480314799016e-112</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>9.404603636369599e-113</v>
+        <v>9.512918244262347e-113</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>8.745382992268483e-113</v>
+        <v>8.840529782286327e-113</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>8.199598498739298e-113</v>
+        <v>8.288465530242669e-113</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>7.730100190066961e-113</v>
+        <v>7.817553256313791e-113</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>7.299738100536107e-113</v>
+        <v>7.388620728681825e-113</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>6.871362264430252e-113</v>
+        <v>6.962495715527777e-113</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>6.407840231459996e-113</v>
+        <v>6.500024237016859e-113</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>5.885965359435341e-113</v>
+        <v>5.976563728243013e-113</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>5.321478266177006e-113</v>
+        <v>5.40805669098495e-113</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>4.736876233426143e-113</v>
+        <v>4.817486421565066e-113</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>4.15465654292397e-113</v>
+        <v>4.227836216305836e-113</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>3.597316476410123e-113</v>
+        <v>3.662089371528124e-113</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>3.087353315626267e-113</v>
+        <v>3.143229183554857e-113</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>2.647264342312172e-113</v>
+        <v>2.694238948707028e-113</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>2.299546838209021e-113</v>
+        <v>2.338101963307079e-113</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>2.066698085057673e-113</v>
+        <v>2.097801523677115e-113</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>1.971215364598392e-113</v>
+        <v>1.996320926138634e-113</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>2.035595958572148e-113</v>
+        <v>2.056643467013856e-113</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>2.282337148719333e-113</v>
+        <v>2.301752442624421e-113</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>2.733936216781078e-113</v>
+        <v>2.754631149292698e-113</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>3.411058334469034e-113</v>
+        <v>3.436382643906513e-113</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>4.311443327217373e-113</v>
+        <v>4.344582389798447e-113</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>5.417229328589509e-113</v>
+        <v>5.460794303052567e-113</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>6.710255446293187e-113</v>
+        <v>6.766275418508572e-113</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>8.172360788040448e-113</v>
+        <v>8.242282771010496e-113</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>9.785384461539908e-113</v>
+        <v>9.870073395398911e-113</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>1.147816063858548e-112</v>
+        <v>1.157705552859452e-112</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>1.269497530342985e-112</v>
+        <v>1.279837499868615e-112</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>1.262043169538335e-112</v>
+        <v>1.270536062475461e-112</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>1.140270699207209e-112</v>
+        <v>1.144954829167214e-112</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>1.124296060847042e-112</v>
+        <v>1.127170395731818e-112</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>1.176632086220108e-112</v>
+        <v>1.179342062472949e-112</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>1.227551227282987e-112</v>
+        <v>1.230843353169413e-112</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>1.213574153507687e-112</v>
+        <v>1.217347498122016e-112</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>1.137086987328136e-112</v>
+        <v>1.140935950868722e-112</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>1.039961327477656e-112</v>
+        <v>1.043501024917311e-112</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>9.642312262528649e-113</v>
+        <v>9.671035589135707e-113</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>9.239501822734649e-113</v>
+        <v>9.259485014585949e-113</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>8.874349444118732e-113</v>
+        <v>8.887000694230877e-113</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>8.394037014269826e-113</v>
+        <v>8.40217137963957e-113</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>7.821941365209305e-113</v>
+        <v>7.827867975316005e-113</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>7.186957525001309e-113</v>
+        <v>7.192419675669936e-113</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>6.517980521711506e-113</v>
+        <v>6.524155675112648e-113</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>5.843905383405687e-113</v>
+        <v>5.851405168055551e-113</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>5.193627138147808e-113</v>
+        <v>5.202497348908215e-113</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>4.59479556348831e-113</v>
+        <v>4.604543919909068e-113</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>4.057200148114627e-113</v>
+        <v>4.067194424775144e-113</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>3.577266105289456e-113</v>
+        <v>3.587032039832624e-113</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>3.151096372475283e-113</v>
+        <v>3.160324849577234e-113</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>2.774793887134403e-113</v>
+        <v>2.783340938504509e-113</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>2.444461586728112e-113</v>
+        <v>2.452348391108984e-113</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>2.15620240871899e-113</v>
+        <v>2.163615291886481e-113</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>1.906119290568494e-113</v>
+        <v>1.913409725331692e-113</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.690316004831774e-113</v>
+        <v>1.698000145101284e-113</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>1.50513311210809e-113</v>
+        <v>1.513759679375367e-113</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>1.347472362424837e-113</v>
+        <v>1.35730953573415e-113</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>1.214316811081229e-113</v>
+        <v>1.225306863566839e-113</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>1.102649513376389e-113</v>
+        <v>1.114408812262551e-113</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>1.009458994800358e-113</v>
+        <v>1.02129406463494e-113</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>9.31825724410575e-114</v>
+        <v>9.430032396378951e-114</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>8.669064953539997e-114</v>
+        <v>8.768774062430119e-114</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>8.118604130871318e-114</v>
+        <v>8.202667358361249e-114</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>7.638465830666902e-114</v>
+        <v>7.70521399803294e-114</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>7.200241107492055e-114</v>
+        <v>7.249915695303837e-114</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>6.775521015913376e-114</v>
+        <v>6.810274164033938e-114</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>6.338138433576679e-114</v>
+        <v>6.36187183700866e-114</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>5.884765452306303e-114</v>
+        <v>5.901489066520817e-114</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>5.425410778098359e-114</v>
+        <v>5.438284409800968e-114</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>4.970250243927767e-114</v>
+        <v>4.981571540810758e-114</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>4.52945968276821e-114</v>
+        <v>4.540664133510599e-114</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>4.113197548035712e-114</v>
+        <v>4.124860012099537e-114</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>3.728953059733231e-114</v>
+        <v>3.741022720586831e-114</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>3.378694853193207e-114</v>
+        <v>3.390981155268309e-114</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>3.063520003263213e-114</v>
+        <v>3.075757992553678e-114</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>2.781921790582717e-114</v>
+        <v>2.793843443202147e-114</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>2.5304885098249e-114</v>
+        <v>2.541874917352523e-114</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>2.305764866802858e-114</v>
+        <v>2.316447430360422e-114</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>2.104295567329861e-114</v>
+        <v>2.114155997581633e-114</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.922625317218645e-114</v>
+        <v>1.931595634371409e-114</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.757298822282641e-114</v>
+        <v>1.765361356085702e-114</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.60487710174912e-114</v>
+        <v>1.612064210304569e-114</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.463024267804144e-114</v>
+        <v>1.469399323864347e-114</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>1.331189801423227e-114</v>
+        <v>1.336816418492033e-114</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>1.208985949408891e-114</v>
+        <v>1.213925176192929e-114</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>1.096024958564023e-114</v>
+        <v>1.100335278972702e-114</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>9.919190756914754e-115</v>
+        <v>9.956564088369822e-115</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>8.962805475938224e-115</v>
+        <v>8.994982477911243e-115</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>8.087216210739239e-115</v>
+        <v>8.114704778407672e-115</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>7.28854542934611e-115</v>
+        <v>7.311827809915219e-115</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>6.562915599785022e-115</v>
+        <v>6.582448392487858e-115</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>5.906449190084911e-115</v>
+        <v>5.922663346182321e-115</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>5.315268668272219e-115</v>
+        <v>5.32856949105284e-115</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>4.785496502375188e-115</v>
+        <v>4.796263647155457e-115</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>4.313255160421844e-115</v>
+        <v>4.321842634545988e-115</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>3.894667110438959e-115</v>
+        <v>3.901403273278997e-115</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>3.525854820454604e-115</v>
+        <v>3.531042383410355e-115</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>3.202940758496674e-115</v>
+        <v>3.206856784995747e-115</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>2.922047392592211e-115</v>
+        <v>2.924943298090008e-115</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>2.679297190769148e-115</v>
+        <v>2.681398742748868e-115</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>2.470812621055281e-115</v>
+        <v>2.472319939027913e-115</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>2.292716151477858e-115</v>
+        <v>2.293803706982189e-115</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>2.141130250064829e-115</v>
+        <v>2.141946866667437e-115</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>2.012177384843547e-115</v>
+        <v>2.012846238138804e-115</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>1.90198002384178e-115</v>
+        <v>1.902598641451854e-115</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>1.806660635087151e-115</v>
+        <v>1.807300896662002e-115</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>1.722341686607353e-115</v>
+        <v>1.723049823824736e-115</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>1.64514564642986e-115</v>
+        <v>1.645942242995322e-115</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>1.571644480689839e-115</v>
+        <v>1.572527519399281e-115</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.500913448894098e-115</v>
+        <v>1.501875280985531e-115</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.432894126384512e-115</v>
+        <v>1.43392734412907e-115</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.367528925639172e-115</v>
+        <v>1.368626368015896e-115</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.304760259135995e-115</v>
+        <v>1.305915011831835e-115</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.244530539353075e-115</v>
+        <v>1.245735934762889e-115</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.186782178768496e-115</v>
+        <v>1.18803179599505e-115</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.131457589860189e-115</v>
+        <v>1.132745254714157e-115</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.07849918510624e-115</v>
+        <v>1.079818970106205e-115</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>1.027849376984729e-115</v>
+        <v>1.029195601357179e-115</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>9.79450577973598e-116</v>
+        <v>9.808178076529331e-116</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>9.332452005509677e-116</v>
+        <v>9.34628248179494e-116</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>8.891756571947895e-116</v>
+        <v>8.905695821227217e-116</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>8.471843603831397e-116</v>
+        <v>8.485844686686006e-116</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>8.072137225940875e-116</v>
+        <v>8.086155670031081e-116</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>7.692061563055948e-116</v>
+        <v>7.706055363121142e-116</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>7.331040739957324e-116</v>
+        <v>7.344970357815979e-116</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>6.988498881425644e-116</v>
+        <v>7.002327245975311e-116</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>6.663860112240627e-116</v>
+        <v>6.677552619457944e-116</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>6.356548557182937e-116</v>
+        <v>6.370073070123616e-116</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>6.065988341033161e-116</v>
+        <v>6.079315189832001e-116</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>5.791603588571117e-116</v>
+        <v>5.804705570441997e-116</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>5.532818424577642e-116</v>
+        <v>5.545670803813522e-116</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>5.289056973832606e-116</v>
+        <v>5.301637481805527e-116</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>5.059743361116591e-116</v>
+        <v>5.072032196277675e-116</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>4.844301711210124e-116</v>
+        <v>4.856281539089577e-116</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>4.642156148893157e-116</v>
+        <v>4.653812102100263e-116</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>4.452730798946229e-116</v>
+        <v>4.464050477169354e-116</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>4.275449786149834e-116</v>
+        <v>4.286423256156427e-116</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>4.109737235283992e-116</v>
+        <v>4.120357030920581e-116</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>3.955017271129209e-116</v>
+        <v>3.965278393321405e-116</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>3.810714018465948e-116</v>
+        <v>3.820613935218444e-116</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>3.676251602074291e-116</v>
+        <v>3.685790248470859e-116</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>3.551054146734818e-116</v>
+        <v>3.560233924938314e-116</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>3.434545777227646e-116</v>
+        <v>3.443371556480004e-116</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>3.326201883098205e-116</v>
+        <v>3.334680448470143e-116</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>3.225740082757109e-116</v>
+        <v>3.233877530459794e-116</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>3.132949469383637e-116</v>
+        <v>3.140750438200112e-116</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>3.04761914651654e-116</v>
+        <v>3.055086817690322e-116</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>2.969538217694888e-116</v>
+        <v>2.976674314929968e-116</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>2.898495786457456e-116</v>
+        <v>2.905300575918297e-116</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>2.834280956343234e-116</v>
+        <v>2.840753246654775e-116</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>2.776682830891188e-116</v>
+        <v>2.782819973138842e-116</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>2.72549051364013e-116</v>
+        <v>2.731288401369783e-116</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>2.680493108129032e-116</v>
+        <v>2.685946177347044e-116</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>2.641479717896841e-116</v>
+        <v>2.646580947070049e-116</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>2.608221835809086e-116</v>
+        <v>2.612962776477297e-116</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>2.580176385416167e-116</v>
+        <v>2.584547709005591e-116</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>2.556529034480642e-116</v>
+        <v>2.560521003825753e-116</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>2.536456562436947e-116</v>
+        <v>2.540059047230991e-116</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>2.5191357487196e-116</v>
+        <v>2.522338225514599e-116</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>2.50374337276305e-116</v>
+        <v>2.506534924969797e-116</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>2.489456214001793e-116</v>
+        <v>2.491825531889857e-116</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>2.475451051870321e-116</v>
+        <v>2.477386432568046e-116</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>2.460904665803088e-116</v>
+        <v>2.462394013297591e-116</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>2.444993835234588e-116</v>
+        <v>2.446024660371759e-116</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>2.426895339599318e-116</v>
+        <v>2.427454760083822e-116</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>2.405785958331723e-116</v>
+        <v>2.405860698727e-116</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>2.380842470866299e-116</v>
+        <v>2.380418862594562e-116</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>2.351241656637556e-116</v>
+        <v>2.350305637979792e-116</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>2.316160295079918e-116</v>
+        <v>2.314697411175889e-116</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>2.275257949527102e-116</v>
+        <v>2.273255902766949e-116</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>2.230421568511473e-116</v>
+        <v>2.227881985093226e-116</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>2.184180030077184e-116</v>
+        <v>2.181121851113304e-116</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>2.139062272187366e-116</v>
+        <v>2.135521754021278e-116</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>2.097597232805026e-116</v>
+        <v>2.093627947011117e-116</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>2.062313849893301e-116</v>
+        <v>2.05798668327692e-116</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>2.0357410614153e-116</v>
+        <v>2.03114421601276e-116</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>2.020407805334067e-116</v>
+        <v>2.015646798412642e-116</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>2.018838901380879e-116</v>
+        <v>2.014036524150325e-116</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>2.032283444492146e-116</v>
+        <v>2.027566971969261e-116</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>2.058915180492786e-116</v>
+        <v>2.05438553872949e-116</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>2.09645375971435e-116</v>
+        <v>2.092180973136417e-116</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>2.142618832488348e-116</v>
+        <v>2.138642023895404e-116</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>2.19513004914642e-116</v>
+        <v>2.191457439711945e-116</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>2.251707060020083e-116</v>
+        <v>2.248315969291412e-116</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>2.31006951544084e-116</v>
+        <v>2.306906361339161e-116</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>2.367937065740352e-116</v>
+        <v>2.364917364560706e-116</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>2.423068204935571e-116</v>
+        <v>2.420079885431643e-116</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>2.473695418609656e-116</v>
+        <v>2.470639262240838e-116</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>2.5183679942105e-116</v>
+        <v>2.51518466420023e-116</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>2.555641016209173e-116</v>
+        <v>2.552311552138226e-116</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>2.584069569076847e-116</v>
+        <v>2.580615386883331e-116</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>2.602208737284585e-116</v>
+        <v>2.598691629263946e-116</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>2.60861360530349e-116</v>
+        <v>2.605135740108511e-116</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>2.601839257604676e-116</v>
+        <v>2.598543180245474e-116</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>2.580440778659235e-116</v>
+        <v>2.577509410503264e-116</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>2.543054551017031e-116</v>
+        <v>2.540706403257756e-116</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>2.489474332245585e-116</v>
+        <v>2.487895363925925e-116</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>2.420355545561409e-116</v>
+        <v>2.41964843187524e-116</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>2.336374151796928e-116</v>
+        <v>2.336557074909916e-116</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>2.238206111784747e-116</v>
+        <v>2.239212760834351e-116</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>2.126527386357517e-116</v>
+        <v>2.12820695745299e-116</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>2.002014681008808e-116</v>
+        <v>2.004131899351671e-116</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>1.866552917110301e-116</v>
+        <v>1.868823927561047e-116</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>1.725692180775045e-116</v>
+        <v>1.727893423131165e-116</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>1.585674943972549e-116</v>
+        <v>1.58766372058499e-116</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>1.452743678205753e-116</v>
+        <v>1.454458153973941e-116</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>1.331874372910955e-116</v>
+        <v>1.333320066987744e-116</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>1.223085666529021e-116</v>
+        <v>1.224282577225449e-116</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>1.125183424761786e-116</v>
+        <v>1.126153094115597e-116</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>1.036973513310711e-116</v>
+        <v>1.037739027086355e-116</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>9.572617978775255e-117</v>
+        <v>9.578477855661549e-117</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>8.84854144163867e-117</v>
+        <v>8.85286778983341e-117</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>8.185564178714276e-117</v>
+        <v>8.188634167663108e-117</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>7.571744847017263e-117</v>
+        <v>7.57385108343288e-117</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>6.995142103565124e-117</v>
+        <v>6.996592631427277e-117</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>6.445250090756515e-117</v>
+        <v>6.446359818058304e-117</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>5.919828628708537e-117</v>
+        <v>5.920869961748575e-117</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>5.419589992677487e-117</v>
+        <v>5.420775202897459e-117</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>4.945250142696466e-117</v>
+        <v>4.946731344674261e-117</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>4.497525038799943e-117</v>
+        <v>4.49939419024965e-117</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>4.077130641022285e-117</v>
+        <v>4.079419542794202e-117</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>3.684782909396738e-117</v>
+        <v>3.687463205477365e-117</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>3.3211978039577e-117</v>
+        <v>3.324180981469741e-117</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>2.98708174096912e-117</v>
+        <v>2.990219454859777e-117</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>2.682215782272483e-117</v>
+        <v>2.685331336765339e-117</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>2.404695637559677e-117</v>
+        <v>2.407641323463962e-117</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>2.152438124809667e-117</v>
+        <v>2.155101305589212e-117</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>1.923360062002176e-117</v>
+        <v>1.925663173775419e-117</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>1.715378267116845e-117</v>
+        <v>1.717278818656824e-117</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>1.526409558132763e-117</v>
+        <v>1.527900130867122e-117</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>1.35437075302959e-117</v>
+        <v>1.355479001040575e-117</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>1.197178669786922e-117</v>
+        <v>1.197967319811383e-117</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>1.052787841909461e-117</v>
+        <v>1.053353493095394e-117</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>9.200470628596922e-118</v>
+        <v>9.204917282031561e-118</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>7.987145349647277e-118</v>
+        <v>7.9911670065413e-118</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>6.885892061263526e-118</v>
+        <v>6.89002534871936e-118</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>5.894700242467679e-118</v>
+        <v>5.89923355280612e-118</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>5.011559372277977e-118</v>
+        <v>5.016532863038185e-118</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>4.234458929715393e-118</v>
+        <v>4.239664523654892e-118</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>3.561388393800513e-118</v>
+        <v>3.566369778895189e-118</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>2.990337243552157e-118</v>
+        <v>2.994389872996258e-118</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>2.519471630334093e-118</v>
+        <v>2.521779819945682e-118</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>2.147720790497764e-118</v>
+        <v>2.147949871232032e-118</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>1.874219937771258e-118</v>
+        <v>1.872676093777557e-118</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>1.697940951230892e-118</v>
+        <v>1.695562074305028e-118</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>1.607312722577504e-118</v>
+        <v>1.605077933271146e-118</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>1.575640856652733e-118</v>
+        <v>1.573735298900138e-118</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>1.585357735602858e-118</v>
+        <v>1.583759247543833e-118</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>1.623081169106022e-118</v>
+        <v>1.621824444599647e-118</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>1.675439087225319e-118</v>
+        <v>1.674616314593824e-118</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>1.729166824242013e-118</v>
+        <v>1.728923937354868e-118</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>1.773481150028917e-118</v>
+        <v>1.773931214447933e-118</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>1.800086473966933e-118</v>
+        <v>1.801222856545301e-118</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>1.800795850440726e-118</v>
+        <v>1.80248842709781e-118</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>1.767422333835004e-118</v>
+        <v>1.769417489556337e-118</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>1.691786550575959e-118</v>
+        <v>1.693707251329343e-118</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>1.573578992180892e-118</v>
+        <v>1.574999529616491e-118</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>1.435242336438567e-118</v>
+        <v>1.435904418675693e-118</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>1.30330688281883e-118</v>
+        <v>1.30315845697379e-118</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>1.203040219647887e-118</v>
+        <v>1.202229871462828e-118</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>1.136018911428428e-118</v>
+        <v>1.134790790942107e-118</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>1.082767725803594e-118</v>
+        <v>1.081368178510487e-118</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>1.023078874031987e-118</v>
+        <v>1.021753191851287e-118</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>9.411646833811739e-119</v>
+        <v>9.401449478610948e-119</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>8.399486412638373e-119</v>
+        <v>8.394022616401862e-119</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>7.273045448652534e-119</v>
+        <v>7.273206430557561e-119</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>6.111062228820452e-119</v>
+        <v>6.116956333996789e-119</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>4.992275040108484e-119</v>
+        <v>5.003227739638415e-119</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>3.995416205254669e-119</v>
+        <v>4.009970161525589e-119</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>3.177833070500573e-119</v>
+        <v>3.193982461613795e-119</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>2.527438719981801e-119</v>
+        <v>2.543390060902862e-119</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>2.018078682418282e-119</v>
+        <v>2.032404969247612e-119</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>1.623598486531753e-119</v>
+        <v>1.635239196504679e-119</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>1.317843661043538e-119</v>
+        <v>1.326104752530283e-119</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>1.074659734674187e-119</v>
+        <v>1.079213647179864e-119</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>8.678925239772332e-120</v>
+        <v>8.687781828012332e-120</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>6.848179209690648e-120</v>
+        <v>6.826574497413654e-120</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>5.473394239197067e-120</v>
+        <v>5.43634729970691e-120</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>4.515773991067757e-120</v>
+        <v>4.476319121292088e-120</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>3.879349729003253e-120</v>
+        <v>3.846593395300868e-120</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>3.468152716702563e-120</v>
+        <v>3.447273554863427e-120</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>3.186214217866697e-120</v>
+        <v>3.178463033111916e-120</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>2.950693815975135e-120</v>
+        <v>2.953982083773622e-120</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>2.740995155460007e-120</v>
+        <v>2.752685224792444e-120</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>2.554950170481816e-120</v>
+        <v>2.572681345451716e-120</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>2.390393624122795e-120</v>
+        <v>2.412082290768104e-120</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>2.245160279465688e-120</v>
+        <v>2.26899990575877e-120</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>2.117084899593169e-120</v>
+        <v>2.141546035440815e-120</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>2.004002247587577e-120</v>
+        <v>2.027832524830997e-120</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>1.903747086531601e-120</v>
+        <v>1.925971218946433e-120</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>1.814154179507884e-120</v>
+        <v>1.834073962804188e-120</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>1.733058289598835e-120</v>
+        <v>1.75025260142109e-120</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>1.658294179887169e-120</v>
+        <v>1.672618979814285e-120</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>1.587699757606353e-120</v>
+        <v>1.59928763933867e-120</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.519717114824758e-120</v>
+        <v>1.528891253761087e-120</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.454106944087139e-120</v>
+        <v>1.461193292601084e-120</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.390803881587861e-120</v>
+        <v>1.396106394701046e-120</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.329742563521469e-120</v>
+        <v>1.333543198903545e-120</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>1.270857626082499e-120</v>
+        <v>1.273416344051142e-120</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>1.21408370546533e-120</v>
+        <v>1.215638468986236e-120</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>1.1593554378645e-120</v>
+        <v>1.16012221255139e-120</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>1.106607459474541e-120</v>
+        <v>1.106780213589159e-120</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>1.055774406489842e-120</v>
+        <v>1.055525110941956e-120</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>1.006790915104979e-120</v>
+        <v>1.00626954345238e-120</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>9.595916215143493e-121</v>
+        <v>9.589261499628525e-121</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>9.141111619124815e-121</v>
+        <v>9.134075693159248e-121</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>8.702841724938989e-121</v>
+        <v>8.696264403541441e-121</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>8.280452894530071e-121</v>
+        <v>8.274954019199394e-121</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>7.873291489843312e-121</v>
+        <v>7.86927092855859e-121</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>7.4807038728239e-121</v>
+        <v>7.478341520044456e-121</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>7.10203640541598e-121</v>
+        <v>7.101292182081369e-121</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>6.736635449564749e-121</v>
+        <v>6.737249303094763e-121</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>6.384312054080637e-121</v>
+        <v>6.385851142831189e-121</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>6.04702059821714e-121</v>
+        <v>6.049096925952774e-121</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>5.72733300614693e-121</v>
+        <v>5.729666127753234e-121</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>5.427821259382408e-121</v>
+        <v>5.430238286688435e-121</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>5.151057339436846e-121</v>
+        <v>5.153492941215111e-121</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>4.899613227823218e-121</v>
+        <v>4.902109629789702e-121</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>4.676060906054692e-121</v>
+        <v>4.678767890868833e-121</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>4.482972355643834e-121</v>
+        <v>4.486147262908544e-121</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>4.322919558103967e-121</v>
+        <v>4.32692728436561e-121</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>4.198474494947777e-121</v>
+        <v>4.203787493696186e-121</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>4.112209147688398e-121</v>
+        <v>4.11940742935687e-121</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>4.066695497838827e-121</v>
+        <v>4.076466629804119e-121</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>4.064505526911959e-121</v>
+        <v>4.077644633494294e-121</v>
       </c>
     </row>
   </sheetData>
